--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>9.142401072347445</v>
+        <v>7.399735808506445</v>
       </c>
       <c r="R2">
-        <v>82.281609651127</v>
+        <v>66.597622276558</v>
       </c>
       <c r="S2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="T2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
         <v>25.753615374463</v>
@@ -632,10 +632,10 @@
         <v>231.782538370167</v>
       </c>
       <c r="S3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="T3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>17.83477008101711</v>
+        <v>12.78182947161278</v>
       </c>
       <c r="R4">
-        <v>160.512930729154</v>
+        <v>115.036465244515</v>
       </c>
       <c r="S4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="T4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
     </row>
   </sheetData>
